--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H2">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I2">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J2">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N2">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O2">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P2">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q2">
-        <v>0.1186601100731111</v>
+        <v>8.036713128577778</v>
       </c>
       <c r="R2">
-        <v>1.067940990658</v>
+        <v>72.33041815720001</v>
       </c>
       <c r="S2">
-        <v>1.941759636272199E-05</v>
+        <v>0.001369713615596553</v>
       </c>
       <c r="T2">
-        <v>1.941759636272199E-05</v>
+        <v>0.001369713615596553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H3">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I3">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J3">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q3">
-        <v>0.1649513753915555</v>
+        <v>7.088954116035556</v>
       </c>
       <c r="R3">
-        <v>1.484562378524</v>
+        <v>63.80058704432</v>
       </c>
       <c r="S3">
-        <v>2.69927208465894E-05</v>
+        <v>0.001208185089815621</v>
       </c>
       <c r="T3">
-        <v>2.699272084658939E-05</v>
+        <v>0.001208185089815621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H4">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I4">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J4">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N4">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q4">
-        <v>0.386246001995</v>
+        <v>2.43177560752</v>
       </c>
       <c r="R4">
-        <v>3.476214017955</v>
+        <v>21.88598046768</v>
       </c>
       <c r="S4">
-        <v>6.320547788834007E-05</v>
+        <v>0.0004144525387937002</v>
       </c>
       <c r="T4">
-        <v>6.320547788834005E-05</v>
+        <v>0.0004144525387937003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H5">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I5">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J5">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N5">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O5">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P5">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q5">
-        <v>0.01682127237177778</v>
+        <v>0.4833699556933334</v>
       </c>
       <c r="R5">
-        <v>0.151391451346</v>
+        <v>4.35032960124</v>
       </c>
       <c r="S5">
-        <v>2.75264094244763E-06</v>
+        <v>8.238173978478513E-05</v>
       </c>
       <c r="T5">
-        <v>2.752640942447629E-06</v>
+        <v>8.238173978478514E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H6">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I6">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J6">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N6">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O6">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P6">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q6">
-        <v>0.02890133719566667</v>
+        <v>1.285082880231111</v>
       </c>
       <c r="R6">
-        <v>0.260112034761</v>
+        <v>11.56574592208</v>
       </c>
       <c r="S6">
-        <v>4.729428446194809E-06</v>
+        <v>0.0002190193291786789</v>
       </c>
       <c r="T6">
-        <v>4.729428446194807E-06</v>
+        <v>0.0002190193291786789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H7">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I7">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J7">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N7">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q7">
-        <v>0.5396487106635556</v>
+        <v>6.549391261746667</v>
       </c>
       <c r="R7">
-        <v>4.856838395972</v>
+        <v>58.94452135572</v>
       </c>
       <c r="S7">
-        <v>8.830836946697543E-05</v>
+        <v>0.001116226278275907</v>
       </c>
       <c r="T7">
-        <v>8.830836946697541E-05</v>
+        <v>0.001116226278275907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.3791</v>
       </c>
       <c r="I8">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J8">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N8">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O8">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P8">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q8">
-        <v>0.3277359094888889</v>
+        <v>0.5165014252222222</v>
       </c>
       <c r="R8">
-        <v>2.9496231854</v>
+        <v>4.648512827</v>
       </c>
       <c r="S8">
-        <v>5.363085876208796E-05</v>
+        <v>8.802840455835684E-05</v>
       </c>
       <c r="T8">
-        <v>5.363085876208794E-05</v>
+        <v>8.802840455835687E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.3791</v>
       </c>
       <c r="I9">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J9">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q9">
         <v>0.4555910912444444</v>
@@ -1013,10 +1013,10 @@
         <v>4.1003198212</v>
       </c>
       <c r="S9">
-        <v>7.455314099056544E-05</v>
+        <v>7.76473305489801E-05</v>
       </c>
       <c r="T9">
-        <v>7.455314099056543E-05</v>
+        <v>7.764733054898013E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.3791</v>
       </c>
       <c r="I10">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J10">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N10">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q10">
-        <v>1.0668006685</v>
+        <v>0.1562847332</v>
       </c>
       <c r="R10">
-        <v>9.601206016500001</v>
+        <v>1.4065625988</v>
       </c>
       <c r="S10">
-        <v>0.0001745717644088806</v>
+        <v>2.663592983214976E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001745717644088805</v>
+        <v>2.663592983214977E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.3791</v>
       </c>
       <c r="I11">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J11">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N11">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O11">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P11">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q11">
-        <v>0.04645988442222222</v>
+        <v>0.03106509676666666</v>
       </c>
       <c r="R11">
-        <v>0.4181389598</v>
+        <v>0.2795858709</v>
       </c>
       <c r="S11">
-        <v>7.602717393516517E-06</v>
+        <v>5.294488596317198E-06</v>
       </c>
       <c r="T11">
-        <v>7.602717393516516E-06</v>
+        <v>5.294488596317201E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.3791</v>
       </c>
       <c r="I12">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J12">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N12">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O12">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P12">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q12">
-        <v>0.07982468603333333</v>
+        <v>0.08258937808888889</v>
       </c>
       <c r="R12">
-        <v>0.7184221743</v>
+        <v>0.7433044028</v>
       </c>
       <c r="S12">
-        <v>1.306254926125773E-05</v>
+        <v>1.407587826791345E-05</v>
       </c>
       <c r="T12">
-        <v>1.306254926125772E-05</v>
+        <v>1.407587826791345E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.3791</v>
       </c>
       <c r="I13">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J13">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N13">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q13">
-        <v>1.490494664844444</v>
+        <v>0.4209146036333333</v>
       </c>
       <c r="R13">
-        <v>13.4144519836</v>
+        <v>3.7882314327</v>
       </c>
       <c r="S13">
-        <v>0.0002439052497499609</v>
+        <v>7.173734515294676E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002439052497499609</v>
+        <v>7.173734515294677E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H14">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I14">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J14">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N14">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O14">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P14">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q14">
-        <v>276.4719910650707</v>
+        <v>1140.839718328847</v>
       </c>
       <c r="R14">
-        <v>2488.247919585636</v>
+        <v>10267.55746495962</v>
       </c>
       <c r="S14">
-        <v>0.04524200697936256</v>
+        <v>0.1944356692105655</v>
       </c>
       <c r="T14">
-        <v>0.04524200697936256</v>
+        <v>0.1944356692105655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H15">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I15">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J15">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q15">
-        <v>384.3282730424453</v>
+        <v>1006.301990328142</v>
       </c>
       <c r="R15">
-        <v>3458.954457382008</v>
+        <v>9056.717912953272</v>
       </c>
       <c r="S15">
-        <v>0.06289165981830061</v>
+        <v>0.171506126385562</v>
       </c>
       <c r="T15">
-        <v>0.06289165981830061</v>
+        <v>0.171506126385562</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H16">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I16">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J16">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N16">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q16">
-        <v>899.9334413787899</v>
+        <v>345.1991074879921</v>
       </c>
       <c r="R16">
-        <v>8099.400972409109</v>
+        <v>3106.791967391929</v>
       </c>
       <c r="S16">
-        <v>0.1472655326818922</v>
+        <v>0.05883299678033351</v>
       </c>
       <c r="T16">
-        <v>0.1472655326818922</v>
+        <v>0.05883299678033352</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H17">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I17">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J17">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N17">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O17">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P17">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q17">
-        <v>39.19270479361467</v>
+        <v>68.61606670280601</v>
       </c>
       <c r="R17">
-        <v>352.734343142532</v>
+        <v>617.5446003252541</v>
       </c>
       <c r="S17">
-        <v>0.006413512692486379</v>
+        <v>0.01169437795126907</v>
       </c>
       <c r="T17">
-        <v>0.006413512692486377</v>
+        <v>0.01169437795126907</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H18">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I18">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J18">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N18">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O18">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P18">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q18">
-        <v>67.33863835121799</v>
+        <v>182.4220384200187</v>
       </c>
       <c r="R18">
-        <v>606.047745160962</v>
+        <v>1641.798345780168</v>
       </c>
       <c r="S18">
-        <v>0.01101932653116222</v>
+        <v>0.0310905647384971</v>
       </c>
       <c r="T18">
-        <v>0.01101932653116221</v>
+        <v>0.0310905647384971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H19">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I19">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J19">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N19">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q19">
-        <v>1257.353911275869</v>
+        <v>929.7091438672181</v>
       </c>
       <c r="R19">
-        <v>11316.18520148282</v>
+        <v>8367.382294804962</v>
       </c>
       <c r="S19">
-        <v>0.2057539869059761</v>
+        <v>0.1584522493867959</v>
       </c>
       <c r="T19">
-        <v>0.2057539869059761</v>
+        <v>0.1584522493867959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H20">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I20">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J20">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N20">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O20">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P20">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q20">
-        <v>0.06821419661888889</v>
+        <v>0.1427865533266667</v>
       </c>
       <c r="R20">
-        <v>0.6139277695699999</v>
+        <v>1.28507897994</v>
       </c>
       <c r="S20">
-        <v>1.116260329892522E-05</v>
+        <v>2.433540716044557E-05</v>
       </c>
       <c r="T20">
-        <v>1.116260329892522E-05</v>
+        <v>2.433540716044557E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H21">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I21">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J21">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q21">
-        <v>0.09482567938444443</v>
+        <v>0.1259479228293333</v>
       </c>
       <c r="R21">
-        <v>0.8534311144599999</v>
+        <v>1.133531305464</v>
       </c>
       <c r="S21">
-        <v>1.551731888646944E-05</v>
+        <v>2.146556459033029E-05</v>
       </c>
       <c r="T21">
-        <v>1.551731888646944E-05</v>
+        <v>2.146556459033029E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H22">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I22">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J22">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N22">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q22">
-        <v>0.222041431675</v>
+        <v>0.043204834104</v>
       </c>
       <c r="R22">
-        <v>1.998372885075</v>
+        <v>0.3888435069360001</v>
       </c>
       <c r="S22">
-        <v>3.633496457579192E-05</v>
+        <v>7.363489101210656E-06</v>
       </c>
       <c r="T22">
-        <v>3.633496457579192E-05</v>
+        <v>7.363489101210659E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H23">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I23">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J23">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N23">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O23">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P23">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q23">
-        <v>0.009670053232222222</v>
+        <v>0.008587930022</v>
       </c>
       <c r="R23">
-        <v>0.08703047908999999</v>
+        <v>0.077291370198</v>
       </c>
       <c r="S23">
-        <v>1.582412070523399E-06</v>
+        <v>1.463658649093208E-06</v>
       </c>
       <c r="T23">
-        <v>1.582412070523399E-06</v>
+        <v>1.463658649093208E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H24">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I24">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J24">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N24">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O24">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P24">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q24">
-        <v>0.01661452611833333</v>
+        <v>0.02283179109066667</v>
       </c>
       <c r="R24">
-        <v>0.149530735065</v>
+        <v>0.205486119816</v>
       </c>
       <c r="S24">
-        <v>2.718808888049436E-06</v>
+        <v>3.891269306868546E-06</v>
       </c>
       <c r="T24">
-        <v>2.718808888049435E-06</v>
+        <v>3.891269306868546E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H25">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I25">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J25">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N25">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q25">
-        <v>0.3102281232644444</v>
+        <v>0.116361625666</v>
       </c>
       <c r="R25">
-        <v>2.79205310938</v>
+        <v>1.047254630994</v>
       </c>
       <c r="S25">
-        <v>5.076587636908642E-05</v>
+        <v>1.983175216755243E-05</v>
       </c>
       <c r="T25">
-        <v>5.076587636908642E-05</v>
+        <v>1.983175216755244E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H26">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I26">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J26">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N26">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O26">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P26">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q26">
-        <v>130.6185286018289</v>
+        <v>130.2514956303556</v>
       </c>
       <c r="R26">
-        <v>1175.56675741646</v>
+        <v>1172.2634606732</v>
       </c>
       <c r="S26">
-        <v>0.02137447760936897</v>
+        <v>0.022199031390372</v>
       </c>
       <c r="T26">
-        <v>0.02137447760936897</v>
+        <v>0.022199031390372</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H27">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I27">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J27">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q27">
-        <v>181.5749701497644</v>
+        <v>114.8911080059911</v>
       </c>
       <c r="R27">
-        <v>1634.17473134788</v>
+        <v>1034.01997205392</v>
       </c>
       <c r="S27">
-        <v>0.02971301373114409</v>
+        <v>0.01958112880590386</v>
       </c>
       <c r="T27">
-        <v>0.02971301373114409</v>
+        <v>0.01958112880590386</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H28">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I28">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J28">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N28">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q28">
-        <v>425.1713943956499</v>
+        <v>39.41193431312</v>
       </c>
       <c r="R28">
-        <v>3826.54254956085</v>
+        <v>354.70740881808</v>
       </c>
       <c r="S28">
-        <v>0.06957524745479914</v>
+        <v>0.006717057356908615</v>
       </c>
       <c r="T28">
-        <v>0.06957524745479914</v>
+        <v>0.006717057356908616</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H29">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I29">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J29">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N29">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O29">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P29">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q29">
-        <v>18.51649931100222</v>
+        <v>7.834006099826667</v>
       </c>
       <c r="R29">
-        <v>166.64849379902</v>
+        <v>70.50605489844001</v>
       </c>
       <c r="S29">
-        <v>0.003030048678112053</v>
+        <v>0.00133516583806419</v>
       </c>
       <c r="T29">
-        <v>0.003030048678112052</v>
+        <v>0.00133516583806419</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H30">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I30">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J30">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N30">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O30">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P30">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q30">
-        <v>31.81397806556333</v>
+        <v>20.82741594494222</v>
       </c>
       <c r="R30">
-        <v>286.32580259007</v>
+        <v>187.44674350448</v>
       </c>
       <c r="S30">
-        <v>0.005206054371506813</v>
+        <v>0.00354965951142871</v>
       </c>
       <c r="T30">
-        <v>0.005206054371506812</v>
+        <v>0.00354965951142871</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H31">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I31">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J31">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N31">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q31">
-        <v>594.0338375324044</v>
+        <v>106.1463802008133</v>
       </c>
       <c r="R31">
-        <v>5346.30453779164</v>
+        <v>955.31742180732</v>
       </c>
       <c r="S31">
-        <v>0.09720797727135108</v>
+        <v>0.01809074678681126</v>
       </c>
       <c r="T31">
-        <v>0.09720797727135107</v>
+        <v>0.01809074678681126</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H32">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I32">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J32">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N32">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O32">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P32">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q32">
-        <v>170.079917884782</v>
+        <v>542.6055612087989</v>
       </c>
       <c r="R32">
-        <v>1530.719260963038</v>
+        <v>4883.450050879191</v>
       </c>
       <c r="S32">
-        <v>0.02783195795838023</v>
+        <v>0.09247738636374891</v>
       </c>
       <c r="T32">
-        <v>0.02783195795838022</v>
+        <v>0.09247738636374891</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H33">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I33">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J33">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q33">
-        <v>236.430898001796</v>
+        <v>478.6168007959737</v>
       </c>
       <c r="R33">
-        <v>2127.878082016164</v>
+        <v>4307.551207163764</v>
       </c>
       <c r="S33">
-        <v>0.03868966363039882</v>
+        <v>0.081571649779606</v>
       </c>
       <c r="T33">
-        <v>0.03868966363039882</v>
+        <v>0.081571649779606</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H34">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I34">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J34">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N34">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q34">
-        <v>553.620658721445</v>
+        <v>164.183410200404</v>
       </c>
       <c r="R34">
-        <v>4982.585928493005</v>
+        <v>1477.650691803636</v>
       </c>
       <c r="S34">
-        <v>0.09059474563519114</v>
+        <v>0.02798211766535507</v>
       </c>
       <c r="T34">
-        <v>0.09059474563519113</v>
+        <v>0.02798211766535507</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H35">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I35">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J35">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N35">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O35">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P35">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q35">
-        <v>24.110550899934</v>
+        <v>32.63513601696366</v>
       </c>
       <c r="R35">
-        <v>216.994958099406</v>
+        <v>293.716224152673</v>
       </c>
       <c r="S35">
-        <v>0.003945461917819938</v>
+        <v>0.005562073628126512</v>
       </c>
       <c r="T35">
-        <v>0.003945461917819937</v>
+        <v>0.005562073628126512</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H36">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I36">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J36">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N36">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O36">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P36">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q36">
-        <v>41.425353928719</v>
+        <v>86.76346987527955</v>
       </c>
       <c r="R36">
-        <v>372.828185358471</v>
+        <v>780.8712288775159</v>
       </c>
       <c r="S36">
-        <v>0.006778864449688737</v>
+        <v>0.01478727735123258</v>
       </c>
       <c r="T36">
-        <v>0.006778864449688734</v>
+        <v>0.01478727735123258</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H37">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I37">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J37">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N37">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q37">
-        <v>773.4984262169879</v>
+        <v>442.1877531648244</v>
       </c>
       <c r="R37">
-        <v>6961.485835952892</v>
+        <v>3979.689778483419</v>
       </c>
       <c r="S37">
-        <v>0.1265756471844505</v>
+        <v>0.07536297196004185</v>
       </c>
       <c r="T37">
-        <v>0.1265756471844505</v>
+        <v>0.07536297196004185</v>
       </c>
     </row>
   </sheetData>
